--- a/Kanji_v2/KanjiN5/Batch_6/Lesson5/kanjiv2.xlsx
+++ b/Kanji_v2/KanjiN5/Batch_6/Lesson5/kanjiv2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_LearningJapaneseWebProject\Kanji_v2\Lesson36\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_LearningJapaneseWebProject\Kanji_v2\KanjiN5\Batch_6\Lesson5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9034888D-9657-43E6-A809-3BF7D23F1DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7361A6-19B9-4589-AF2F-C37494CF8ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>japanese</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>bến c ảng</t>
+  </si>
+  <si>
+    <t>漢</t>
+  </si>
+  <si>
+    <t>Hán</t>
+  </si>
+  <si>
+    <t>hán tự</t>
   </si>
 </sst>
 </file>
@@ -465,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,6 +602,17 @@
         <v>31</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Kanji_v2/KanjiN5/Batch_6/Lesson5/kanjiv2.xlsx
+++ b/Kanji_v2/KanjiN5/Batch_6/Lesson5/kanjiv2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\01_LearningJapaneseWebProject\Kanji_v2\KanjiN5\Batch_6\Lesson5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7361A6-19B9-4589-AF2F-C37494CF8ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAEBEE5-A36F-4A48-8AED-F800BBF68B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21495" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,9 +120,6 @@
     <t>cảng</t>
   </si>
   <si>
-    <t>bến c ảng</t>
-  </si>
-  <si>
     <t>漢</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>hán tự</t>
+  </si>
+  <si>
+    <t>bến cảng</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,18 +599,18 @@
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
